--- a/GameConfig/Datas/音效配置表.xlsx
+++ b/GameConfig/Datas/音效配置表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\GitHub Project\SolitaryTraveler\GameConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\GitHub Project\DGame\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A166C75-286F-427D-8A8B-5CEC3F29AFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4421E8-8A37-4110-9FFD-4D0004DC9E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="5650" windowWidth="28800" windowHeight="15230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>##var</t>
   </si>
@@ -236,14 +236,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -566,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI15"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -596,10 +593,10 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="3"/>
@@ -609,9 +606,9 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="5"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="4"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -634,23 +631,27 @@
       <c r="AH1"/>
       <c r="AI1"/>
     </row>
-    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="5"/>
+    <row r="2" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="4"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -674,26 +675,22 @@
       <c r="AI2"/>
     </row>
     <row r="3" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="4"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -716,23 +713,29 @@
       <c r="AH3"/>
       <c r="AI3"/>
     </row>
-    <row r="4" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="5"/>
+    <row r="4" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
@@ -755,217 +758,172 @@
       <c r="AH4"/>
       <c r="AI4"/>
     </row>
-    <row r="5" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>7</v>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8">
+        <v>1000001</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
-      <c r="AD5"/>
-      <c r="AE5"/>
-      <c r="AF5"/>
-      <c r="AG5"/>
-      <c r="AH5"/>
-      <c r="AI5"/>
+        <v>13</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9">
-        <v>1000001</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="10">
+        <v>1000002</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="11">
-        <v>1000002</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
